--- a/excels/details/vestel-fabrika-verisi-details.xlsx
+++ b/excels/details/vestel-fabrika-verisi-details.xlsx
@@ -413,14 +413,2338 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TROLLEY_COUNT</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TROLLEY_IMPACT_RATE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>EARLINESS/TARDINESS PENALTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TEST_ID_2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Instances/vestel-fabrika-verisi.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mathematical Formulation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ALNS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RULE OF THUMB</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GAP (ALNS-MILP)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>GAP (ALNS-GA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5942</v>
+      </c>
+      <c r="D4" t="n">
+        <v>245809</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cpuTime</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1349.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>281.765</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mathematical Formulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ALNS Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vehicle 0 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1463.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C7, Demand : 55, CurrentTime: 73.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C60, Demand : -55, CurrentTime: 202.0, delivery, Distance: 14.0, Start: 170, End: 230, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 14.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C51, Demand : 80, CurrentTime: 325.0, pickup, Distance: 8.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 8.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C104, Demand : -80, CurrentTime: 455.0, delivery, Distance: 0.0, Start: 390, End: 450, ServiceTime: 55, EA Penalty: 0, TA Penalty: 100.0,  cumsum: 100.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C2, Demand : 65, CurrentTime: 583.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C55, Demand : -65, CurrentTime: 734.0, delivery, Distance: 36.0, Start: 90, End: 710, ServiceTime: 70, EA Penalty: 0, TA Penalty: 480.0,  cumsum: 516.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C27, Demand : 60, CurrentTime: 883.0, pickup, Distance: 19.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 19.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C41, Demand : 45, CurrentTime: 1013.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 15.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C94, Demand : -45, CurrentTime: 1160.0, delivery, Distance: 17.0, Start: 0, End: 1770, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 17.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C80, Demand : -60, CurrentTime: 1323.0, delivery, Distance: 33.0, Start: 0, End: 1850, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 33.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1463.0, depot, Distance: 25.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 25.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vehicle 1 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1935.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C9, Demand : 75, CurrentTime: 75.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 15.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C62, Demand : -75, CurrentTime: 202.0, delivery, Distance: 12.0, Start: 160, End: 250, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 12.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C25, Demand : 65, CurrentTime: 348.0, pickup, Distance: 31.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 31.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C78, Demand : -65, CurrentTime: 463.0, delivery, Distance: 0.0, Start: 0, End: 600, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C44, Demand : 40, CurrentTime: 578.0, pickup, Distance: 0.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C97, Demand : -40, CurrentTime: 708.0, delivery, Distance: 0.0, Start: 580, End: 710, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C40, Demand : 85, CurrentTime: 851.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C93, Demand : -85, CurrentTime: 994.0, delivery, Distance: 28.0, Start: 0, End: 1770, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 28.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C36, Demand : 65, CurrentTime: 1136.0, pickup, Distance: 27.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 27.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C89, Demand : -65, CurrentTime: 1294.0, delivery, Distance: 28.0, Start: 0, End: 1530, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 28.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C18, Demand : 75, CurrentTime: 1429.0, pickup, Distance: 5.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C71, Demand : -75, CurrentTime: 1544.0, delivery, Distance: 0.0, Start: 1240, End: 1690, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C20, Demand : 80, CurrentTime: 1673.0, pickup, Distance: 14.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 14.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C73, Demand : -80, CurrentTime: 1788.0, delivery, Distance: 0.0, Start: 0, End: 1810, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1935.0, depot, Distance: 32.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 32.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vehicle 2 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 864.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C14, Demand : 80, CurrentTime: 88.0, pickup, Distance: 28.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 28.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C39, Demand : 40, CurrentTime: 226.0, pickup, Distance: 8.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 8.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C92, Demand : -40, CurrentTime: 347.0, delivery, Distance: 6.0, Start: 300, End: 420, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 6.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C67, Demand : -80, CurrentTime: 476.0, delivery, Distance: 14.0, Start: 0, End: 680, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 14.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C13, Demand : 85, CurrentTime: 610.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 4.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C66, Demand : -85, CurrentTime: 725.0, delivery, Distance: 0.0, Start: 560, End: 700, ServiceTime: 55, EA Penalty: 0, TA Penalty: 500.0,  cumsum: 500.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 864.0, depot, Distance: 24.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 24.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vehicle 3 - Trolley Count: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1282.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C34, Demand : 35, CurrentTime: 43.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C87, Demand : -35, CurrentTime: 141.0, delivery, Distance: 13.0, Start: 0, End: 310, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C17, Demand : 40, CurrentTime: 246.0, pickup, Distance: 20.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 20.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C70, Demand : -40, CurrentTime: 367.0, delivery, Distance: 36.0, Start: 0, End: 390, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 36.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C28, Demand : 30, CurrentTime: 457.0, pickup, Distance: 5.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C81, Demand : -30, CurrentTime: 547.0, delivery, Distance: 5.0, Start: 420, End: 570, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C35, Demand : 60, CurrentTime: 646.0, pickup, Distance: 14.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 14.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C88, Demand : -60, CurrentTime: 737.0, delivery, Distance: 6.0, Start: 530, End: 850, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 6.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C43, Demand : 35, CurrentTime: 848.0, pickup, Distance: 11.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 11.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C96, Demand : -35, CurrentTime: 948.0, delivery, Distance: 0.0, Start: 0, End: 1010, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C31, Demand : 50, CurrentTime: 1041.0, pickup, Distance: 8.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 8.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C84, Demand : -50, CurrentTime: 1168.0, delivery, Distance: 27.0, Start: 0, End: 1230, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 27.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1282.0, depot, Distance: 29.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 29.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vehicle 4 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1438.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C15, Demand : 75, CurrentTime: 76.0, pickup, Distance: 16.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 16.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C45, Demand : 30, CurrentTime: 210.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 4.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C68, Demand : -75, CurrentTime: 357.0, delivery, Distance: 32.0, Start: 110, End: 700, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 32.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C98, Demand : -30, CurrentTime: 484.0, delivery, Distance: 12.0, Start: 400, End: 590, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 12.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C38, Demand : 85, CurrentTime: 622.0, pickup, Distance: 23.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 23.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C91, Demand : -85, CurrentTime: 761.0, delivery, Distance: 9.0, Start: 540, End: 690, ServiceTime: 55, EA Penalty: 0, TA Penalty: 1420.0,  cumsum: 1429.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C16, Demand : 45, CurrentTime: 880.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 4.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C69, Demand : -45, CurrentTime: 1010.0, delivery, Distance: 0.0, Start: 0, End: 1010, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C33, Demand : 85, CurrentTime: 1145.0, pickup, Distance: 20.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 20.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C86, Demand : -85, CurrentTime: 1286.0, delivery, Distance: 26.0, Start: 960, End: 1550, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 26.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1438.0, depot, Distance: 37.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 37.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vehicle 5 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1720.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C53, Demand : 35, CurrentTime: 110.0, pickup, Distance: 50.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 50.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C50, Demand : 70, CurrentTime: 263.0, pickup, Distance: 23.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 23.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C103, Demand : -70, CurrentTime: 378.0, delivery, Distance: 0.0, Start: 310, End: 390, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C106, Demand : -35, CurrentTime: 516.0, delivery, Distance: 23.0, Start: 0, End: 570, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 23.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C32, Demand : 85, CurrentTime: 670.0, pickup, Distance: 24.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 24.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C85, Demand : -85, CurrentTime: 790.0, delivery, Distance: 5.0, Start: 220, End: 910, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C10, Demand : 85, CurrentTime: 918.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C63, Demand : -85, CurrentTime: 1064.0, delivery, Distance: 16.0, Start: 310, End: 1070, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 16.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C37, Demand : 70, CurrentTime: 1183.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 4.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C90, Demand : -70, CurrentTime: 1307.0, delivery, Distance: 9.0, Start: 0, End: 1530, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 9.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C22, Demand : 75, CurrentTime: 1442.0, pickup, Distance: 5.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C75, Demand : -75, CurrentTime: 1567.0, delivery, Distance: 10.0, Start: 0, End: 1970, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 10.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1720.0, depot, Distance: 38.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 38.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Vehicle 6 - Trolley Count: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 901.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C4, Demand : 55, CurrentTime: 51.0, pickup, Distance: 21.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 21.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C57, Demand : -55, CurrentTime: 163.0, delivery, Distance: 27.0, Start: 90, End: 430, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 27.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C49, Demand : 50, CurrentTime: 267.0, pickup, Distance: 19.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 19.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C102, Demand : -50, CurrentTime: 352.0, delivery, Distance: 0.0, Start: 0, End: 630, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C6, Demand : 40, CurrentTime: 469.0, pickup, Distance: 32.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 32.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C59, Demand : -40, CurrentTime: 582.0, delivery, Distance: 13.0, Start: 310, End: 730, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 13.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C8, Demand : 50, CurrentTime: 675.0, pickup, Distance: 8.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 8.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C61, Demand : -50, CurrentTime: 774.0, delivery, Distance: 14.0, Start: 310, End: 890, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 14.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 901.0, depot, Distance: 27.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 27.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Vehicle 7 - Trolley Count: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 915.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C30, Demand : 30, CurrentTime: 72.0, pickup, Distance: 42.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 42.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C83, Demand : -30, CurrentTime: 160.0, delivery, Distance: 3.0, Start: 0, End: 290, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 3.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C21, Demand : 30, CurrentTime: 270.0, pickup, Distance: 10.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 10.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C74, Demand : -30, CurrentTime: 370.0, delivery, Distance: 0.0, Start: 0, End: 370, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C52, Demand : 35, CurrentTime: 476.0, pickup, Distance: 6.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 6.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C105, Demand : -35, CurrentTime: 561.0, delivery, Distance: 0.0, Start: 0, End: 550, ServiceTime: 70, EA Penalty: 0, TA Penalty: 220.0,  cumsum: 220.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C29, Demand : 50, CurrentTime: 691.0, pickup, Distance: 30.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 30.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C82, Demand : -50, CurrentTime: 776.0, delivery, Distance: 0.0, Start: 660, End: 710, ServiceTime: 55, EA Penalty: 0, TA Penalty: 1320.0,  cumsum: 1320.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 915.0, depot, Distance: 54.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 54.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Vehicle 8 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1705.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C23, Demand : 35, CurrentTime: 93.0, pickup, Distance: 33.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 33.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C76, Demand : -35, CurrentTime: 225.0, delivery, Distance: 17.0, Start: 0, End: 390, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 17.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C48, Demand : 80, CurrentTime: 370.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 15.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C101, Demand : -80, CurrentTime: 506.0, delivery, Distance: 6.0, Start: 490, End: 620, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 6.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C3, Demand : 65, CurrentTime: 633.0, pickup, Distance: 12.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 12.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C12, Demand : 35, CurrentTime: 753.0, pickup, Distance: 5.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C56, Demand : -65, CurrentTime: 904.0, delivery, Distance: 36.0, Start: 90, End: 1010, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 36.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C26, Demand : 80, CurrentTime: 1037.0, pickup, Distance: 18.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 18.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C79, Demand : -80, CurrentTime: 1172.0, delivery, Distance: 5.0, Start: 0, End: 1290, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C65, Demand : -35, CurrentTime: 1316.0, delivery, Distance: 14.0, Start: 510, End: 1410, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 14.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C11, Demand : 70, CurrentTime: 1435.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 4.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C64, Demand : -70, CurrentTime: 1550.0, delivery, Distance: 0.0, Start: 410, End: 1570, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 1705.0, depot, Distance: 40.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 40.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Vehicle 9 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 2064.0, depot, Distance: 0.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C47, Demand : 35, CurrentTime: 82.0, pickup, Distance: 22.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 22.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C100, Demand : -35, CurrentTime: 202.0, delivery, Distance: 5.0, Start: 0, End: 530, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 5.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C42, Demand : 85, CurrentTime: 356.0, pickup, Distance: 39.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 39.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C95, Demand : -85, CurrentTime: 471.0, delivery, Distance: 0.0, Start: 380, End: 530, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C5, Demand : 75, CurrentTime: 622.0, pickup, Distance: 36.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 36.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C58, Demand : -75, CurrentTime: 768.0, delivery, Distance: 31.0, Start: 660, End: 930, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 31.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C46, Demand : 75, CurrentTime: 926.0, pickup, Distance: 28.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 28.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C99, Demand : -75, CurrentTime: 1056.0, delivery, Distance: 15.0, Start: 820, End: 1070, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 15.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C1, Demand : 60, CurrentTime: 1201.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 15.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C54, Demand : -60, CurrentTime: 1371.0, delivery, Distance: 40.0, Start: 90, End: 1650, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 40.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C19, Demand : 75, CurrentTime: 1508.0, pickup, Distance: 22.0, Start: 0, End: 0, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 22.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C72, Demand : -75, CurrentTime: 1623.0, delivery, Distance: 0.0, Start: 0, End: 1890, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 0.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C24, Demand : 65, CurrentTime: 1763.0, pickup, Distance: 10.0, Start: 0, End: 0, ServiceTime: 70, EA Penalty: 0, TA Penalty: 0,  cumsum: 10.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( C77, Demand : -65, CurrentTime: 1908.0, delivery, Distance: 15.0, Start: 0, End: 1930, ServiceTime: 55, EA Penalty: 0, TA Penalty: 0,  cumsum: 15.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ( D0, Demand : 0, CurrentTime: 2064.0, depot, Distance: 41.0, Start: 0, End: 0, ServiceTime: 0, EA Penalty: 0, TA Penalty: 0,  cumsum: 41.0 ) </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>GA Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Vehicle 0 - Trolley Count: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C2, Demand: 65, CurrentTime: 107.0, pickup, Distance: 17.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 17.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C6, Demand: 40, CurrentTime: 256.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 4.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C59, Demand: -40, CurrentTime: 429.0, delivery, Distance: 13.0, Start: 310, End: 730, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 13.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C20, Demand: 80, CurrentTime: 593.0, pickup, Distance: 19.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 19.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C55, Demand: -65, CurrentTime: 758.0, delivery, Distance: 20.0, Start: 90, End: 710, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 960.0, cumsum: 980.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C73, Demand: -80, CurrentTime: 938.0, delivery, Distance: 20.0, Start: 0, End: 1810, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 20.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1115.0, depot, Distance: 32.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 32.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Vehicle 1 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C13, Demand: 85, CurrentTime: 84.0, pickup, Distance: 24.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 24.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C28, Demand: 30, CurrentTime: 230.0, pickup, Distance: 31.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 31.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C66, Demand: -85, CurrentTime: 376.0, delivery, Distance: 31.0, Start: 560, End: 700, ServiceTime: 55, EarlinessPenalty: 3680.0, TardinessPen: 0, cumsum: 3711.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C44, Demand: 40, CurrentTime: 522.0, pickup, Distance: 31.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 31.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C97, Demand: -40, CurrentTime: 652.0, delivery, Distance: 0.0, Start: 580, End: 710, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C35, Demand: 60, CurrentTime: 794.0, pickup, Distance: 12.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 12.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C88, Demand: -60, CurrentTime: 915.0, delivery, Distance: 6.0, Start: 530, End: 850, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 1300.0, cumsum: 1306.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C27, Demand: 60, CurrentTime: 1060.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C80, Demand: -60, CurrentTime: 1221.0, delivery, Distance: 46.0, Start: 0, End: 1850, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 46.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C81, Demand: -30, CurrentTime: 1377.0, delivery, Distance: 41.0, Start: 420, End: 570, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 16140.0, cumsum: 16181.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1546.0, depot, Distance: 54.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 54.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Vehicle 2 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C7, Demand: 55, CurrentTime: 73.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 13.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C60, Demand: -55, CurrentTime: 202.0, delivery, Distance: 14.0, Start: 170, End: 230, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 14.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C49, Demand: 50, CurrentTime: 352.0, pickup, Distance: 35.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 35.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C102, Demand: -50, CurrentTime: 467.0, delivery, Distance: 0.0, Start: 0, End: 630, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C5, Demand: 75, CurrentTime: 617.0, pickup, Distance: 35.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 35.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C58, Demand: -75, CurrentTime: 763.0, delivery, Distance: 31.0, Start: 660, End: 930, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 31.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C19, Demand: 75, CurrentTime: 909.0, pickup, Distance: 16.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 16.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C72, Demand: -75, CurrentTime: 1024.0, delivery, Distance: 0.0, Start: 0, End: 1890, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C53, Demand: 35, CurrentTime: 1186.0, pickup, Distance: 32.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 32.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C106, Demand: -35, CurrentTime: 1316.0, delivery, Distance: 0.0, Start: 0, End: 570, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 14920.0, cumsum: 14920.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C32, Demand: 85, CurrentTime: 1470.0, pickup, Distance: 24.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 24.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C85, Demand: -85, CurrentTime: 1590.0, delivery, Distance: 5.0, Start: 220, End: 910, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 13600.0, cumsum: 13605.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C4, Demand: 55, CurrentTime: 1720.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C57, Demand: -55, CurrentTime: 1862.0, delivery, Distance: 27.0, Start: 90, End: 430, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 28640.0, cumsum: 28667.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 2022.0, depot, Distance: 45.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 45.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Vehicle 3 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C45, Demand: 30, CurrentTime: 78.0, pickup, Distance: 18.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 18.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C10, Demand: 85, CurrentTime: 197.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 4.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C63, Demand: -85, CurrentTime: 343.0, delivery, Distance: 16.0, Start: 310, End: 1070, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 16.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C52, Demand: 35, CurrentTime: 462.0, pickup, Distance: 4.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 4.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C105, Demand: -35, CurrentTime: 577.0, delivery, Distance: 0.0, Start: 0, End: 550, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 540.0, cumsum: 540.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C98, Demand: -30, CurrentTime: 724.0, delivery, Distance: 17.0, Start: 400, End: 590, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 2680.0, cumsum: 2697.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C38, Demand: 85, CurrentTime: 862.0, pickup, Distance: 23.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 23.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C91, Demand: -85, CurrentTime: 1001.0, delivery, Distance: 9.0, Start: 540, End: 690, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 6220.0, cumsum: 6229.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C11, Demand: 70, CurrentTime: 1131.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C64, Demand: -70, CurrentTime: 1246.0, delivery, Distance: 0.0, Start: 410, End: 1570, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C50, Demand: 70, CurrentTime: 1377.0, pickup, Distance: 16.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 16.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C103, Demand: -70, CurrentTime: 1492.0, delivery, Distance: 0.0, Start: 310, End: 390, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 22040.0, cumsum: 22040.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1645.0, depot, Distance: 38.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 38.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Vehicle 4 - Trolley Count: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C48, Demand: 80, CurrentTime: 115.0, pickup, Distance: 25.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 25.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C42, Demand: 85, CurrentTime: 309.0, pickup, Distance: 34.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 34.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C95, Demand: -85, CurrentTime: 454.0, delivery, Distance: 0.0, Start: 380, End: 530, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C1, Demand: 60, CurrentTime: 639.0, pickup, Distance: 40.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 40.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C54, Demand: -60, CurrentTime: 839.0, delivery, Distance: 40.0, Start: 90, End: 1650, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 40.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C101, Demand: -80, CurrentTime: 1023.0, delivery, Distance: 39.0, Start: 490, End: 620, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 8060.0, cumsum: 8099.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1194.0, depot, Distance: 26.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 26.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Vehicle 5 - Trolley Count: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C17, Demand: 40, CurrentTime: 109.0, pickup, Distance: 19.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 19.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C70, Demand: -40, CurrentTime: 290.0, delivery, Distance: 36.0, Start: 0, End: 390, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 36.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C18, Demand: 75, CurrentTime: 446.0, pickup, Distance: 11.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 11.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C43, Demand: 35, CurrentTime: 599.0, pickup, Distance: 8.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 8.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C96, Demand: -35, CurrentTime: 759.0, delivery, Distance: 0.0, Start: 0, End: 1010, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C3, Demand: 65, CurrentTime: 926.0, pickup, Distance: 22.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 22.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C56, Demand: -65, CurrentTime: 1108.0, delivery, Distance: 37.0, Start: 90, End: 1010, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 1960.0, cumsum: 1997.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C12, Demand: 35, CurrentTime: 1289.0, pickup, Distance: 36.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 36.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C65, Demand: -35, CurrentTime: 1461.0, delivery, Distance: 27.0, Start: 510, End: 1410, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 1020.0, cumsum: 1047.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C71, Demand: -75, CurrentTime: 1608.0, delivery, Distance: 2.0, Start: 1240, End: 1690, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1796.0, depot, Distance: 43.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 43.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Vehicle 6 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C9, Demand: 75, CurrentTime: 75.0, pickup, Distance: 15.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C39, Demand: 40, CurrentTime: 207.0, pickup, Distance: 17.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 17.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C92, Demand: -40, CurrentTime: 328.0, delivery, Distance: 6.0, Start: 300, End: 420, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 6.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C21, Demand: 30, CurrentTime: 478.0, pickup, Distance: 35.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 35.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C74, Demand: -30, CurrentTime: 608.0, delivery, Distance: 0.0, Start: 0, End: 370, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 4760.0, cumsum: 4760.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C41, Demand: 45, CurrentTime: 751.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 13.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C94, Demand: -45, CurrentTime: 898.0, delivery, Distance: 17.0, Start: 0, End: 1770, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 17.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C16, Demand: 45, CurrentTime: 1052.0, pickup, Distance: 24.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 24.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C69, Demand: -45, CurrentTime: 1182.0, delivery, Distance: 0.0, Start: 0, End: 1010, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 3440.0, cumsum: 3440.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C62, Demand: -75, CurrentTime: 1305.0, delivery, Distance: 8.0, Start: 160, End: 250, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 21100.0, cumsum: 21108.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1442.0, depot, Distance: 22.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 22.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Vehicle 7 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C15, Demand: 75, CurrentTime: 76.0, pickup, Distance: 16.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 16.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C47, Demand: 35, CurrentTime: 215.0, pickup, Distance: 9.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 9.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C100, Demand: -35, CurrentTime: 335.0, delivery, Distance: 5.0, Start: 0, End: 530, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 5.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C23, Demand: 35, CurrentTime: 477.0, pickup, Distance: 27.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 27.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C68, Demand: -75, CurrentTime: 613.0, delivery, Distance: 21.0, Start: 110, End: 700, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 21.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C24, Demand: 65, CurrentTime: 744.0, pickup, Distance: 16.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 16.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C77, Demand: -65, CurrentTime: 889.0, delivery, Distance: 15.0, Start: 0, End: 1930, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C25, Demand: 65, CurrentTime: 1016.0, pickup, Distance: 12.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 12.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C78, Demand: -65, CurrentTime: 1131.0, delivery, Distance: 0.0, Start: 0, End: 600, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 10620.0, cumsum: 10620.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C46, Demand: 75, CurrentTime: 1275.0, pickup, Distance: 29.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 29.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C99, Demand: -75, CurrentTime: 1405.0, delivery, Distance: 15.0, Start: 820, End: 1070, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 6700.0, cumsum: 6715.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C76, Demand: -35, CurrentTime: 1559.0, delivery, Distance: 24.0, Start: 0, End: 390, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 23380.0, cumsum: 23404.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 1728.0, depot, Distance: 39.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 39.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Vehicle 8 - Trolley Count: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C30, Demand: 30, CurrentTime: 102.0, pickup, Distance: 42.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 42.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C83, Demand: -30, CurrentTime: 220.0, delivery, Distance: 3.0, Start: 0, End: 290, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 3.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C14, Demand: 80, CurrentTime: 370.0, pickup, Distance: 20.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 20.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C67, Demand: -80, CurrentTime: 500.0, delivery, Distance: 0.0, Start: 0, End: 680, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C40, Demand: 85, CurrentTime: 664.0, pickup, Distance: 34.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 34.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C93, Demand: -85, CurrentTime: 807.0, delivery, Distance: 28.0, Start: 0, End: 1770, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 28.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C31, Demand: 50, CurrentTime: 933.0, pickup, Distance: 11.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 11.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C8, Demand: 50, CurrentTime: 1088.0, pickup, Distance: 25.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 25.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C61, Demand: -50, CurrentTime: 1217.0, delivery, Distance: 14.0, Start: 310, End: 890, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 6540.0, cumsum: 6554.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C84, Demand: -50, CurrentTime: 1349.0, delivery, Distance: 2.0, Start: 0, End: 1230, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 2380.0, cumsum: 2382.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C26, Demand: 80, CurrentTime: 1505.0, pickup, Distance: 41.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 41.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C79, Demand: -80, CurrentTime: 1640.0, delivery, Distance: 5.0, Start: 0, End: 1290, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 7000.0, cumsum: 7005.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C51, Demand: 80, CurrentTime: 1802.0, pickup, Distance: 32.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 32.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C104, Demand: -80, CurrentTime: 1932.0, delivery, Distance: 0.0, Start: 390, End: 450, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 29640.0, cumsum: 29640.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 2075.0, depot, Distance: 28.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 28.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Vehicle 9 - Trolley Count: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 0, depot, Distance: 0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C34, Demand: 35, CurrentTime: 103.0, pickup, Distance: 13.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 13.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C87, Demand: -35, CurrentTime: 261.0, delivery, Distance: 13.0, Start: 0, End: 310, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 13.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C36, Demand: 65, CurrentTime: 426.0, pickup, Distance: 20.0, Start: 0, End: 0, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 20.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C29, Demand: 50, CurrentTime: 622.0, pickup, Distance: 36.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 36.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C82, Demand: -50, CurrentTime: 767.0, delivery, Distance: 0.0, Start: 660, End: 710, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 1140.0, cumsum: 1140.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C22, Demand: 75, CurrentTime: 943.0, pickup, Distance: 31.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 31.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C89, Demand: -65, CurrentTime: 1115.0, delivery, Distance: 27.0, Start: 0, End: 1530, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 27.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C37, Demand: 70, CurrentTime: 1293.0, pickup, Distance: 18.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 18.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C90, Demand: -70, CurrentTime: 1447.0, delivery, Distance: 9.0, Start: 0, End: 1530, ServiceTime: 70, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 9.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C33, Demand: 85, CurrentTime: 1634.0, pickup, Distance: 27.0, Start: 0, End: 0, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 27.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C86, Demand: -85, CurrentTime: 1805.0, delivery, Distance: 26.0, Start: 960, End: 1550, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 5100.0, cumsum: 5126.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (C75, Demand: -75, CurrentTime: 1958.0, delivery, Distance: 8.0, Start: 0, End: 1970, ServiceTime: 55, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 8.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (D0, Demand: 0, CurrentTime: 2141.0, depot, Distance: 38.0, Start: 0, End: 0, ServiceTime: 0, EarlinessPenalty: 0, TardinessPen: 0, cumsum: 38.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Rule Of Thumb Algorithm</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>